--- a/webscrapping school/sciencedirect/collected_data.xlsx
+++ b/webscrapping school/sciencedirect/collected_data.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+  <si>
+    <t>Link</t>
+  </si>
   <si>
     <t>Author</t>
   </si>
@@ -22,6 +25,21 @@
     <t>Affiliation</t>
   </si>
   <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S129325580000128X</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0921509304007427</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/B0123693950008654</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0257897206004117</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com//science/article/pii/S0007850607001540</t>
+  </si>
+  <si>
     <t>Dieter Völtzke</t>
   </si>
   <si>
@@ -67,10 +85,13 @@
     <t>Martin-Luther-Universität Halle-Wittenberg, Fachbereich Chemie, Kurt-Mothes-Straße 2, D-06120 Halle, Germany</t>
   </si>
   <si>
+    <t>Department of Materials Science and Engineering, Sharif University of Technology, P.O. Box 11365-9466, Azadi Avenue, Tehran, Iran</t>
+  </si>
+  <si>
+    <t>Fraunhofer Institute for Manufacturing and Advanced Materials (IFAM), Wiener Strasse, 28359 Bremen, Germany</t>
+  </si>
+  <si>
     <t>Fraunhofer Institute for Laser Technology-ILT, Steinbach Str. 15, D 52074, Aachen, Germany</t>
-  </si>
-  <si>
-    <t>K.U.Leuven, Division PMA, Leuven, Belgium</t>
   </si>
   <si>
     <t>FHS - University of Applied Sciences St. Gallen, Switzerland</t>
@@ -86,7 +107,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,6 +122,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -135,16 +163,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -437,115 +471,182 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="B12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="B14" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>15</v>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="B15" t="s">
         <v>21</v>
       </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
+    <hyperlink ref="A7" r:id="rId6"/>
+    <hyperlink ref="A8" r:id="rId7"/>
+    <hyperlink ref="A9" r:id="rId8"/>
+    <hyperlink ref="A10" r:id="rId9"/>
+    <hyperlink ref="A11" r:id="rId10"/>
+    <hyperlink ref="A12" r:id="rId11"/>
+    <hyperlink ref="A13" r:id="rId12"/>
+    <hyperlink ref="A14" r:id="rId13"/>
+    <hyperlink ref="A15" r:id="rId14"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>